--- a/data/INPUT/LABOUR_COMMISSION_09_06_2025.xlsx
+++ b/data/INPUT/LABOUR_COMMISSION_09_06_2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\region.vtb.ru\dfs\DS_Zapros_FOIV_PR866\ЕДО ИД\02 СТАТИСТИКА\Статистика извлечения июнь 2025\Исходники от Наиля\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python projects\count_statistics_edo_id\data\INPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="dsv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="183">
   <si>
     <t>regnumber</t>
   </si>
@@ -576,12 +576,18 @@
   <si>
     <t>111111111</t>
   </si>
+  <si>
+    <t>doc_class</t>
+  </si>
+  <si>
+    <t>labour_commission</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -846,105 +852,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1"/>
-    <col min="7" max="7" width="32.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1"/>
+    <col min="8" max="8" width="32.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>45</v>
@@ -952,68 +964,77 @@
       <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>7707111111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>770000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>63</v>
@@ -1021,28 +1042,31 @@
       <c r="I6" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>45</v>
@@ -1050,372 +1074,414 @@
       <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -1423,28 +1489,31 @@
       <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>23</v>
@@ -1452,28 +1521,31 @@
       <c r="I22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>97</v>
@@ -1481,28 +1553,31 @@
       <c r="I23" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="G24" s="1">
-        <v>46000007</v>
       </c>
       <c r="H24" s="1">
         <v>46000007</v>
@@ -1510,28 +1585,31 @@
       <c r="I24" s="1">
         <v>46000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="1">
+        <v>46000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2300000937</v>
       </c>
       <c r="H25" s="1">
         <v>2300000937</v>
@@ -1539,135 +1617,150 @@
       <c r="I25" s="1">
         <v>2300000937</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="1">
+        <v>2300000937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>200000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>45</v>
@@ -1675,141 +1768,156 @@
       <c r="I30" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>45</v>
@@ -1817,97 +1925,109 @@
       <c r="I35" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="1">
         <v>1000001018</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>45</v>
@@ -1915,372 +2035,414 @@
       <c r="I39" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I43" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I50" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>12</v>
@@ -2288,28 +2450,31 @@
       <c r="I53" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>23</v>
@@ -2317,68 +2482,77 @@
       <c r="I54" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>179</v>
@@ -2386,28 +2560,31 @@
       <c r="I57" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>180</v>
@@ -2415,106 +2592,118 @@
       <c r="I58" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>45</v>
@@ -2522,141 +2711,156 @@
       <c r="I62" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H63" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H65" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>150</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>45</v>
@@ -2664,28 +2868,31 @@
       <c r="I67" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>153</v>
@@ -2693,77 +2900,86 @@
       <c r="I68" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>45</v>
@@ -2771,86 +2987,95 @@
       <c r="I71" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>164</v>
@@ -2858,285 +3083,318 @@
       <c r="I74" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I75" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H76" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H77" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H78" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H79" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H81" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I82" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>12</v>
@@ -3144,28 +3402,31 @@
       <c r="I85" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>23</v>
@@ -3173,155 +3434,173 @@
       <c r="I86" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="15.75">
       <c r="A88" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="2" t="s">
         <v>180</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75">
       <c r="A89" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="2" t="s">
         <v>179</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="15.75">
       <c r="A91" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>40</v>
@@ -3329,57 +3608,63 @@
       <c r="I92" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="2" t="s">
         <v>178</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>45</v>
@@ -3387,62 +3672,71 @@
       <c r="I94" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H95" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H96" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3460,7 +3754,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/INPUT/LABOUR_COMMISSION_09_06_2025.xlsx
+++ b/data/INPUT/LABOUR_COMMISSION_09_06_2025.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="186">
   <si>
     <t>regnumber</t>
   </si>
@@ -581,6 +581,15 @@
   </si>
   <si>
     <t>LABOUR_COMMISSION</t>
+  </si>
+  <si>
+    <t>355551</t>
+  </si>
+  <si>
+    <t>img1.pdf</t>
+  </si>
+  <si>
+    <t>01975232-4e2f-4345-9b54-67a4f368db73</t>
   </si>
 </sst>
 </file>
@@ -852,16 +861,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B96"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
@@ -1868,51 +1877,39 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>44</v>
@@ -1920,109 +1917,85 @@
       <c r="G35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J35" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J36" s="1">
-        <v>1000001018</v>
+        <v>7707111111</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>116</v>
+      <c r="J37" s="1">
+        <v>770000001</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G38" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>57</v>
@@ -2030,191 +2003,137 @@
       <c r="G39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J39" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J44" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>48</v>
+      <c r="G45" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>48</v>
@@ -2222,167 +2141,119 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J46" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J47" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>89</v>
@@ -2393,51 +2264,39 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>9</v>
@@ -2445,31 +2304,22 @@
       <c r="G53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>20</v>
@@ -2477,173 +2327,134 @@
       <c r="G54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J54" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G55" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="J55" s="1" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75">
+      <c r="G56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J56" s="1">
+        <v>46000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75">
+        <v>99</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2300000937</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>180</v>
+      <c r="J58" s="1">
+        <v>200000001</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>39</v>
@@ -2651,54 +2462,45 @@
       <c r="G60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J60" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>144</v>
+      <c r="G61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>44</v>
@@ -2706,43 +2508,28 @@
       <c r="G62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J62" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>48</v>
@@ -2750,28 +2537,22 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>48</v>
+      <c r="G64" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>48</v>
@@ -2779,48 +2560,36 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J65" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>16</v>
@@ -2829,30 +2598,30 @@
         <v>17</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>52</v>
@@ -2875,16 +2644,16 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>54</v>
@@ -2893,30 +2662,30 @@
         <v>55</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1000001018</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>58</v>
@@ -2925,21 +2694,21 @@
         <v>59</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>53</v>
@@ -2947,31 +2716,22 @@
       <c r="F70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J70" s="1" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>56</v>
@@ -2994,16 +2754,16 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>60</v>
@@ -3012,30 +2772,30 @@
         <v>61</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>64</v>
@@ -3044,30 +2804,30 @@
         <v>65</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>66</v>
@@ -3076,30 +2836,30 @@
         <v>70</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>75</v>
@@ -3116,16 +2876,16 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>75</v>
@@ -3145,16 +2905,16 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>79</v>
@@ -3174,16 +2934,16 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>79</v>
@@ -3203,16 +2963,16 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>79</v>
@@ -3235,16 +2995,16 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>81</v>
@@ -3253,30 +3013,30 @@
         <v>82</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>83</v>
@@ -3296,16 +3056,16 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>83</v>
@@ -3322,16 +3082,16 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>88</v>
@@ -3345,16 +3105,16 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>90</v>
@@ -3363,30 +3123,30 @@
         <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>7</v>
@@ -3409,16 +3169,16 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>19</v>
@@ -3441,16 +3201,16 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>25</v>
@@ -3459,21 +3219,21 @@
         <v>26</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>27</v>
@@ -3481,31 +3241,22 @@
       <c r="F88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="J88" s="1" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75">
       <c r="A89" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>29</v>
@@ -3514,30 +3265,30 @@
         <v>30</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" ht="15.75">
       <c r="A90" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>32</v>
@@ -3545,22 +3296,31 @@
       <c r="F90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75">
+      <c r="G90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>35</v>
@@ -3569,30 +3329,30 @@
         <v>36</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>38</v>
@@ -3610,21 +3370,21 @@
         <v>40</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>41</v>
@@ -3632,31 +3392,22 @@
       <c r="F93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="J93" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>43</v>
@@ -3679,16 +3430,16 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>46</v>
@@ -3697,7 +3448,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>48</v>
@@ -3711,16 +3462,16 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>49</v>
@@ -3728,16 +3479,977 @@
       <c r="F96" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J96" s="1" t="s">
+      <c r="H97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75">
+      <c r="A120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75">
+      <c r="A121" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75">
+      <c r="A123" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75">
+      <c r="A125" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>48</v>
       </c>
     </row>

--- a/data/INPUT/LABOUR_COMMISSION_09_06_2025.xlsx
+++ b/data/INPUT/LABOUR_COMMISSION_09_06_2025.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="187">
   <si>
     <t>regnumber</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>01975232-4e2f-4345-9b54-67a4f368db73</t>
+  </si>
+  <si>
+    <t>711111/11111</t>
   </si>
 </sst>
 </file>
@@ -861,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -873,7 +876,7 @@
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="1"/>
     <col min="8" max="8" width="32.140625" style="1" customWidth="1"/>
@@ -4450,6 +4453,919 @@
         <v>48</v>
       </c>
       <c r="J128" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15.75">
+      <c r="A151" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H151" s="2"/>
+      <c r="J151" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15.75">
+      <c r="A152" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H152" s="2"/>
+      <c r="J152" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75">
+      <c r="A154" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15.75">
+      <c r="A156" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H156" s="2"/>
+      <c r="J156" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>48</v>
       </c>
     </row>
